--- a/_data/cc/temporal/Estadistica.xlsx
+++ b/_data/cc/temporal/Estadistica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\BASE DE DATOS SENASIR_v2\ABRIL\CC\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\MAYO\CC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -346,7 +346,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -562,6 +562,11 @@
       <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1100,7 +1105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1313,6 +1318,45 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="33" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="33" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1392,42 +1436,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1686,7 +1694,7 @@
   <dimension ref="A1:S260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
@@ -1792,7 +1800,7 @@
       </c>
       <c r="I2" s="99">
         <f>+UCC!G8</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="J2" s="99">
         <f>+UCC!H8</f>
@@ -1857,7 +1865,7 @@
       </c>
       <c r="I3" s="99">
         <f>+UCC!G9</f>
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="J3" s="99">
         <f>+UCC!H9</f>
@@ -1922,7 +1930,7 @@
       </c>
       <c r="I4" s="99">
         <f>+UCC!G11</f>
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="J4" s="99">
         <f>+UCC!H11</f>
@@ -1987,7 +1995,7 @@
       </c>
       <c r="I5" s="99">
         <f>+UCC!G12</f>
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="J5" s="99">
         <f>+UCC!H12</f>
@@ -2052,7 +2060,7 @@
       </c>
       <c r="I6" s="99">
         <f>+UCC!G17</f>
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="J6" s="99">
         <f>+UCC!H17</f>
@@ -2117,7 +2125,7 @@
       </c>
       <c r="I7" s="99">
         <f>+UCC!G18</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="J7" s="99">
         <f>+UCC!H18</f>
@@ -2182,7 +2190,7 @@
       </c>
       <c r="I8" s="99">
         <f>+UCC!G19</f>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="J8" s="99">
         <f>+UCC!H19</f>
@@ -2247,7 +2255,7 @@
       </c>
       <c r="I9" s="99">
         <f>+UCC!G20</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J9" s="99">
         <f>+UCC!H20</f>
@@ -2312,7 +2320,7 @@
       </c>
       <c r="I10" s="99">
         <f>+UCC!G21</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J10" s="99">
         <f>+UCC!H21</f>
@@ -2377,7 +2385,7 @@
       </c>
       <c r="I11" s="99">
         <f>+UCC!G22</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J11" s="99">
         <f>+UCC!H22</f>
@@ -2442,7 +2450,7 @@
       </c>
       <c r="I12" s="99">
         <f>+UCC!G23</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J12" s="99">
         <f>+UCC!H23</f>
@@ -2507,7 +2515,7 @@
       </c>
       <c r="I13" s="99">
         <f>+UCC!G24</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J13" s="99">
         <f>+UCC!H24</f>
@@ -2572,7 +2580,7 @@
       </c>
       <c r="I14" s="99">
         <f>+UCC!G25</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14" s="99">
         <f>+UCC!H25</f>
@@ -2637,7 +2645,7 @@
       </c>
       <c r="I15" s="99">
         <f>+UCC!G27</f>
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="J15" s="99">
         <f>+UCC!H27</f>
@@ -2767,7 +2775,7 @@
       </c>
       <c r="I17" s="99">
         <f>+UCC!G30</f>
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="J17" s="99">
         <f>+UCC!H30</f>
@@ -2832,7 +2840,7 @@
       </c>
       <c r="I18" s="99">
         <f>+UCC!G31</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J18" s="99">
         <f>+UCC!H31</f>
@@ -2897,7 +2905,7 @@
       </c>
       <c r="I19" s="99">
         <f>+UCC!G32</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J19" s="99">
         <f>+UCC!H32</f>
@@ -2962,7 +2970,7 @@
       </c>
       <c r="I20" s="99">
         <f>+UCC!G34</f>
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="J20" s="99">
         <f>+UCC!H34</f>
@@ -3027,7 +3035,7 @@
       </c>
       <c r="I21" s="99">
         <f>+UCC!G35</f>
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="J21" s="99">
         <f>+UCC!H35</f>
@@ -3092,7 +3100,7 @@
       </c>
       <c r="I22" s="99">
         <f>+UCC!G37</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J22" s="99">
         <f>+UCC!H37</f>
@@ -3157,7 +3165,7 @@
       </c>
       <c r="I23" s="99">
         <f>+UCC!G38</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J23" s="99">
         <f>+UCC!H38</f>
@@ -3222,7 +3230,7 @@
       </c>
       <c r="I24" s="99">
         <f>+UCC!G39</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J24" s="99">
         <f>+UCC!H39</f>
@@ -3287,7 +3295,7 @@
       </c>
       <c r="I25" s="99">
         <f>+UCC!G41</f>
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="J25" s="99">
         <f>+UCC!H41</f>
@@ -3352,7 +3360,7 @@
       </c>
       <c r="I26" s="99">
         <f>+UCC!G42</f>
-        <v>0</v>
+        <v>1607</v>
       </c>
       <c r="J26" s="99">
         <f>+UCC!H42</f>
@@ -3417,7 +3425,7 @@
       </c>
       <c r="I27" s="99">
         <f>+UCC!G44</f>
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="J27" s="99">
         <f>+UCC!H44</f>
@@ -3482,7 +3490,7 @@
       </c>
       <c r="I28" s="99">
         <f>+UCC!G45</f>
-        <v>0</v>
+        <v>3033</v>
       </c>
       <c r="J28" s="99">
         <f>+UCC!H45</f>
@@ -3547,7 +3555,7 @@
       </c>
       <c r="I29" s="99">
         <f>+UCC!G46</f>
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J29" s="99">
         <f>+UCC!H46</f>
@@ -3612,7 +3620,7 @@
       </c>
       <c r="I30" s="99">
         <f>+UCC!G47</f>
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="J30" s="99">
         <f>+UCC!H47</f>
@@ -3677,7 +3685,7 @@
       </c>
       <c r="I31" s="99">
         <f>+UCC!G49</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J31" s="99">
         <f>+UCC!H49</f>
@@ -3742,7 +3750,7 @@
       </c>
       <c r="I32" s="99">
         <f>+UCC!G51</f>
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="J32" s="99">
         <f>+UCC!H51</f>
@@ -3807,7 +3815,7 @@
       </c>
       <c r="I33" s="99">
         <f>+UCC!G52</f>
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="J33" s="99">
         <f>+UCC!H52</f>
@@ -3872,7 +3880,7 @@
       </c>
       <c r="I34" s="99">
         <f>+UCC!G53</f>
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="J34" s="99">
         <f>+UCC!H53</f>
@@ -3937,7 +3945,7 @@
       </c>
       <c r="I35" s="99">
         <f>+UCC!G54</f>
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="J35" s="99">
         <f>+UCC!H54</f>
@@ -4002,7 +4010,7 @@
       </c>
       <c r="I36" s="99">
         <f>+UCC!G56</f>
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="J36" s="99">
         <f>+UCC!H56</f>
@@ -4132,7 +4140,7 @@
       </c>
       <c r="I38" s="99">
         <f>+UCC!G58</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J38" s="99">
         <f>+UCC!H58</f>
@@ -4392,7 +4400,7 @@
       </c>
       <c r="I42" s="99">
         <f>+'UCC Pago CC'!G16</f>
-        <v>0</v>
+        <v>2883</v>
       </c>
       <c r="J42" s="99">
         <f>+'UCC Pago CC'!H16</f>
@@ -4457,7 +4465,7 @@
       </c>
       <c r="I43" s="99">
         <f>+'UCC Pago CC'!G17</f>
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="J43" s="99">
         <f>+'UCC Pago CC'!H17</f>
@@ -4717,7 +4725,7 @@
       </c>
       <c r="I47" s="99">
         <f>+'UCC Pago CC'!G25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" s="99">
         <f>+'UCC Pago CC'!H25</f>
@@ -4782,7 +4790,7 @@
       </c>
       <c r="I48" s="99">
         <f>+'UCC Pago CC'!G26</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J48" s="99">
         <f>+'UCC Pago CC'!H26</f>
@@ -5042,7 +5050,7 @@
       </c>
       <c r="I52" s="99">
         <f>+'UCC Pago CC'!G36</f>
-        <v>0</v>
+        <v>9446098.2599999998</v>
       </c>
       <c r="J52" s="99">
         <f>+'UCC Pago CC'!H36</f>
@@ -5107,7 +5115,7 @@
       </c>
       <c r="I53" s="99">
         <f>+'UCC Pago CC'!G37</f>
-        <v>0</v>
+        <v>1980843.15</v>
       </c>
       <c r="J53" s="99">
         <f>+'UCC Pago CC'!H37</f>
@@ -5367,7 +5375,7 @@
       </c>
       <c r="I57" s="99">
         <f>+'UCC Pago CC'!G45</f>
-        <v>0</v>
+        <v>9221.6299999999992</v>
       </c>
       <c r="J57" s="99">
         <f>+'UCC Pago CC'!H45</f>
@@ -5432,7 +5440,7 @@
       </c>
       <c r="I58" s="99">
         <f>+'UCC Pago CC'!G46</f>
-        <v>0</v>
+        <v>6178.69</v>
       </c>
       <c r="J58" s="99">
         <f>+'UCC Pago CC'!H46</f>
@@ -5692,7 +5700,7 @@
       </c>
       <c r="I62" s="99">
         <f>+'UCC Pago CC'!G54</f>
-        <v>0</v>
+        <v>9221.6299999999992</v>
       </c>
       <c r="J62" s="99">
         <f>+'UCC Pago CC'!H54</f>
@@ -5757,7 +5765,7 @@
       </c>
       <c r="I63" s="99">
         <f>+'UCC Pago CC'!G55</f>
-        <v>0</v>
+        <v>18712.66</v>
       </c>
       <c r="J63" s="99">
         <f>+'UCC Pago CC'!H55</f>
@@ -5822,7 +5830,7 @@
       </c>
       <c r="I64" s="99">
         <f>+'ALTAS EN AFPS'!G9</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J64" s="99">
         <f>+'ALTAS EN AFPS'!H9</f>
@@ -5887,7 +5895,7 @@
       </c>
       <c r="I65" s="99">
         <f>+'ALTAS EN AFPS'!G10</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J65" s="99">
         <f>+'ALTAS EN AFPS'!H10</f>
@@ -5952,7 +5960,7 @@
       </c>
       <c r="I66" s="99">
         <f>+'ALTAS EN AFPS'!G11</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="J66" s="99">
         <f>+'ALTAS EN AFPS'!H11</f>
@@ -6017,7 +6025,7 @@
       </c>
       <c r="I67" s="99">
         <f>+'ALTAS EN AFPS'!G12</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="J67" s="99">
         <f>+'ALTAS EN AFPS'!H12</f>
@@ -6082,7 +6090,7 @@
       </c>
       <c r="I68" s="99">
         <f>+'ALTAS EN AFPS'!G15</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J68" s="99">
         <f>+'ALTAS EN AFPS'!H15</f>
@@ -6147,7 +6155,7 @@
       </c>
       <c r="I69" s="99">
         <f>+'ALTAS EN AFPS'!G16</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J69" s="99">
         <f>+'ALTAS EN AFPS'!H16</f>
@@ -6212,7 +6220,7 @@
       </c>
       <c r="I70" s="99">
         <f>+'ALTAS EN AFPS'!G17</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J70" s="99">
         <f>+'ALTAS EN AFPS'!H17</f>
@@ -6277,7 +6285,7 @@
       </c>
       <c r="I71" s="99">
         <f>+'ALTAS EN AFPS'!G18</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J71" s="99">
         <f>+'ALTAS EN AFPS'!H18</f>
@@ -6472,7 +6480,7 @@
       </c>
       <c r="I74" s="99">
         <f>+'ALTAS EN AFPS'!G23</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J74" s="99">
         <f>+'ALTAS EN AFPS'!H23</f>
@@ -6537,7 +6545,7 @@
       </c>
       <c r="I75" s="99">
         <f>+'ALTAS EN AFPS'!G24</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J75" s="99">
         <f>+'ALTAS EN AFPS'!H24</f>
@@ -7142,9 +7150,9 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7154,49 +7162,50 @@
     <col min="3" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="14" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="14" width="9.28515625" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" customWidth="1"/>
     <col min="16" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
+      <c r="A1" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7218,23 +7227,23 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -7243,8 +7252,8 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -7272,21 +7281,21 @@
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="141">
         <v>2024</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="128"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="143"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -7370,7 +7379,9 @@
       <c r="F8" s="16">
         <v>386</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="16">
+        <v>370</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -7380,7 +7391,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="12">
         <f t="shared" ref="O8:O9" si="0">SUM(C8:N8)</f>
-        <v>1477</v>
+        <v>1847</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -7408,7 +7419,9 @@
       <c r="F9" s="16">
         <v>797</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="16">
+        <v>689</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -7418,7 +7431,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="12">
         <f t="shared" si="0"/>
-        <v>3121</v>
+        <v>3810</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -7430,10 +7443,10 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="15">
         <f t="shared" ref="C10:O10" si="1">SUM(C8:C9)</f>
         <v>1443</v>
@@ -7452,7 +7465,7 @@
       </c>
       <c r="G10" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1059</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="1"/>
@@ -7484,7 +7497,7 @@
       </c>
       <c r="O10" s="15">
         <f t="shared" si="1"/>
-        <v>4598</v>
+        <v>5657</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -7514,7 +7527,9 @@
       <c r="F11" s="16">
         <v>321</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16">
+        <v>337</v>
+      </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -7524,7 +7539,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="12">
         <f t="shared" ref="O11:O12" si="2">SUM(C11:N11)</f>
-        <v>1261</v>
+        <v>1598</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -7552,7 +7567,9 @@
       <c r="F12" s="16">
         <v>999</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16">
+        <v>718</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -7562,7 +7579,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="12">
         <f t="shared" si="2"/>
-        <v>2885</v>
+        <v>3603</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -7574,10 +7591,10 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="15">
         <f t="shared" ref="C13:O13" si="3">SUM(C11:C12)</f>
         <v>1060</v>
@@ -7596,7 +7613,7 @@
       </c>
       <c r="G13" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" si="3"/>
@@ -7628,7 +7645,7 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="3"/>
-        <v>4146</v>
+        <v>5201</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -7658,7 +7675,9 @@
       <c r="F14" s="10">
         <v>398</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10">
+        <v>413</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -7668,7 +7687,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="12">
         <f t="shared" ref="O14:O15" si="4">SUM(O12:O13)</f>
-        <v>7031</v>
+        <v>8804</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -7696,7 +7715,9 @@
       <c r="F15" s="10">
         <v>922</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10">
+        <v>642</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -7706,7 +7727,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="12">
         <f t="shared" si="4"/>
-        <v>11177</v>
+        <v>14005</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -7718,10 +7739,10 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="15">
         <f>+C15+C14</f>
         <v>1060</v>
@@ -7740,7 +7761,7 @@
       </c>
       <c r="G16" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="5"/>
@@ -7772,7 +7793,7 @@
       </c>
       <c r="O16" s="15">
         <f t="shared" ref="O16:O28" si="6">SUM(C16:N16)</f>
-        <v>4146</v>
+        <v>5201</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -7802,7 +7823,9 @@
       <c r="F17" s="10">
         <v>398</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>413</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -7812,7 +7835,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="12">
         <f t="shared" si="6"/>
-        <v>1407</v>
+        <v>1820</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -7840,7 +7863,9 @@
       <c r="F18" s="10">
         <v>297</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>190</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -7850,7 +7875,7 @@
       <c r="N18" s="10"/>
       <c r="O18" s="12">
         <f t="shared" si="6"/>
-        <v>857</v>
+        <v>1047</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -7878,7 +7903,9 @@
       <c r="F19" s="10">
         <v>295</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>193</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -7888,7 +7915,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="12">
         <f t="shared" si="6"/>
-        <v>839</v>
+        <v>1032</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -7916,7 +7943,9 @@
       <c r="F20" s="10">
         <v>85</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10">
+        <v>75</v>
+      </c>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -7926,7 +7955,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="12">
         <f t="shared" si="6"/>
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -7954,7 +7983,9 @@
       <c r="F21" s="10">
         <v>80</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10">
+        <v>43</v>
+      </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -7964,7 +7995,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="12">
         <f t="shared" si="6"/>
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -7992,7 +8023,9 @@
       <c r="F22" s="10">
         <v>66</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10">
+        <v>55</v>
+      </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -8002,7 +8035,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="12">
         <f t="shared" si="6"/>
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -8030,7 +8063,9 @@
       <c r="F23" s="10">
         <v>57</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="10">
+        <v>51</v>
+      </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -8040,7 +8075,7 @@
       <c r="N23" s="10"/>
       <c r="O23" s="12">
         <f t="shared" si="6"/>
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -8068,7 +8103,9 @@
       <c r="F24" s="10">
         <v>34</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10">
+        <v>29</v>
+      </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -8078,7 +8115,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="12">
         <f t="shared" si="6"/>
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -8106,7 +8143,9 @@
       <c r="F25" s="10">
         <v>8</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10">
+        <v>6</v>
+      </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -8116,7 +8155,7 @@
       <c r="N25" s="10"/>
       <c r="O25" s="12">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -8128,10 +8167,10 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="143"/>
       <c r="C26" s="15">
         <f t="shared" ref="C26:N26" si="7">SUM(C17:C25)</f>
         <v>1060</v>
@@ -8150,7 +8189,7 @@
       </c>
       <c r="G26" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="7"/>
@@ -8182,7 +8221,7 @@
       </c>
       <c r="O26" s="15">
         <f t="shared" si="6"/>
-        <v>4146</v>
+        <v>5201</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -8212,7 +8251,9 @@
       <c r="F27" s="24">
         <v>1753</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="138">
+        <v>1080</v>
+      </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
@@ -8222,7 +8263,7 @@
       <c r="N27" s="10"/>
       <c r="O27" s="25">
         <f t="shared" si="6"/>
-        <v>4585</v>
+        <v>5665</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -8242,7 +8283,7 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="G28" s="139"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -8264,10 +8305,10 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="17">
         <f>SUM(C27:C28)</f>
         <v>1048</v>
@@ -8286,7 +8327,7 @@
       </c>
       <c r="G29" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="8"/>
@@ -8318,7 +8359,7 @@
       </c>
       <c r="O29" s="17">
         <f t="shared" si="8"/>
-        <v>4585</v>
+        <v>5665</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -8348,7 +8389,9 @@
       <c r="F30" s="10">
         <v>368</v>
       </c>
-      <c r="G30" s="20"/>
+      <c r="G30" s="20">
+        <v>269</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -8358,7 +8401,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="12">
         <f t="shared" ref="O30:O35" si="9">SUM(C30:N30)</f>
-        <v>1160</v>
+        <v>1429</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -8386,7 +8429,9 @@
       <c r="F31" s="10">
         <v>209</v>
       </c>
-      <c r="G31" s="20"/>
+      <c r="G31" s="20">
+        <v>226</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -8396,7 +8441,7 @@
       <c r="N31" s="10"/>
       <c r="O31" s="12">
         <f t="shared" si="9"/>
-        <v>497</v>
+        <v>723</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -8424,7 +8469,9 @@
       <c r="F32" s="10">
         <v>48</v>
       </c>
-      <c r="G32" s="20"/>
+      <c r="G32" s="20">
+        <v>42</v>
+      </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -8434,7 +8481,7 @@
       <c r="N32" s="10"/>
       <c r="O32" s="12">
         <f t="shared" si="9"/>
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -8476,7 +8523,7 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="135" t="s">
+      <c r="A34" s="150" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="26" t="s">
@@ -8494,7 +8541,9 @@
       <c r="F34" s="10">
         <v>682</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="10">
+        <v>505</v>
+      </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="21"/>
@@ -8504,7 +8553,7 @@
       <c r="N34" s="10"/>
       <c r="O34" s="9">
         <f t="shared" si="9"/>
-        <v>2058</v>
+        <v>2563</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -8516,7 +8565,7 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="136"/>
+      <c r="A35" s="151"/>
       <c r="B35" s="26" t="s">
         <v>47</v>
       </c>
@@ -8532,7 +8581,9 @@
       <c r="F35" s="10">
         <v>383</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="10">
+        <v>304</v>
+      </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="21"/>
@@ -8542,7 +8593,7 @@
       <c r="N35" s="10"/>
       <c r="O35" s="9">
         <f t="shared" si="9"/>
-        <v>1234</v>
+        <v>1538</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -8554,10 +8605,10 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="28">
         <f t="shared" ref="C36:O36" si="10">C34+C35</f>
         <v>1149</v>
@@ -8576,7 +8627,7 @@
       </c>
       <c r="G36" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" si="10"/>
@@ -8608,7 +8659,7 @@
       </c>
       <c r="O36" s="28">
         <f t="shared" si="10"/>
-        <v>3292</v>
+        <v>4101</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -8638,7 +8689,9 @@
       <c r="F37" s="10">
         <v>148</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="10">
+        <v>141</v>
+      </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -8648,7 +8701,7 @@
       <c r="N37" s="10"/>
       <c r="O37" s="9">
         <f t="shared" ref="O37:O39" si="11">SUM(C37:N37)</f>
-        <v>489</v>
+        <v>630</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -8678,7 +8731,9 @@
       <c r="F38" s="10">
         <v>114</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="10">
+        <v>99</v>
+      </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -8688,7 +8743,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="12">
         <f t="shared" si="11"/>
-        <v>392</v>
+        <v>491</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -8716,7 +8771,9 @@
       <c r="F39" s="10">
         <v>195</v>
       </c>
-      <c r="G39" s="10"/>
+      <c r="G39" s="10">
+        <v>163</v>
+      </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -8726,7 +8783,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="12">
         <f t="shared" si="11"/>
-        <v>747</v>
+        <v>910</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -8738,10 +8795,10 @@
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="29">
         <f>SUM(C38:C39)</f>
         <v>320</v>
@@ -8760,7 +8817,7 @@
       </c>
       <c r="G40" s="29">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="H40" s="29">
         <f t="shared" si="12"/>
@@ -8792,7 +8849,7 @@
       </c>
       <c r="O40" s="29">
         <f t="shared" si="12"/>
-        <v>1139</v>
+        <v>1401</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -8822,7 +8879,9 @@
       <c r="F41" s="10">
         <v>872</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="10">
+        <v>819</v>
+      </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -8832,7 +8891,7 @@
       <c r="N41" s="10"/>
       <c r="O41" s="12">
         <f t="shared" ref="O41:O42" si="13">SUM(C41:N41)</f>
-        <v>2699</v>
+        <v>3518</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -8860,7 +8919,9 @@
       <c r="F42" s="10">
         <v>1572</v>
       </c>
-      <c r="G42" s="10"/>
+      <c r="G42" s="10">
+        <v>1607</v>
+      </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -8870,7 +8931,7 @@
       <c r="N42" s="10"/>
       <c r="O42" s="12">
         <f t="shared" si="13"/>
-        <v>6289</v>
+        <v>7896</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -8904,7 +8965,7 @@
       </c>
       <c r="G43" s="29">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2426</v>
       </c>
       <c r="H43" s="29">
         <f t="shared" si="14"/>
@@ -8936,7 +8997,7 @@
       </c>
       <c r="O43" s="29">
         <f>O42-O41</f>
-        <v>3590</v>
+        <v>4378</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -8966,7 +9027,9 @@
       <c r="F44" s="10">
         <v>2687</v>
       </c>
-      <c r="G44" s="10"/>
+      <c r="G44" s="10">
+        <v>3512</v>
+      </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -8976,7 +9039,7 @@
       <c r="N44" s="10"/>
       <c r="O44" s="12">
         <f t="shared" ref="O44:O47" si="15">SUM(C44:N44)</f>
-        <v>5935</v>
+        <v>9447</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -9004,7 +9067,9 @@
       <c r="F45" s="10">
         <v>2509</v>
       </c>
-      <c r="G45" s="10"/>
+      <c r="G45" s="10">
+        <v>3033</v>
+      </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -9014,7 +9079,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="12">
         <f t="shared" si="15"/>
-        <v>5429</v>
+        <v>8462</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -9044,7 +9109,9 @@
       <c r="F46" s="10">
         <v>281</v>
       </c>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10">
+        <v>282</v>
+      </c>
       <c r="H46" s="11"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -9054,7 +9121,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="12">
         <f t="shared" si="15"/>
-        <v>1001</v>
+        <v>1283</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -9082,7 +9149,9 @@
       <c r="F47" s="10">
         <v>513</v>
       </c>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10">
+        <v>571</v>
+      </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -9092,7 +9161,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="12">
         <f t="shared" si="15"/>
-        <v>1839</v>
+        <v>2410</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="31"/>
@@ -9104,10 +9173,10 @@
       <c r="W47" s="31"/>
     </row>
     <row r="48" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="132" t="s">
+      <c r="A48" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="128"/>
+      <c r="B48" s="143"/>
       <c r="C48" s="29">
         <f t="shared" ref="C48:O48" si="16">SUM(C46:C47)</f>
         <v>710</v>
@@ -9126,7 +9195,7 @@
       </c>
       <c r="G48" s="29">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="H48" s="29">
         <f t="shared" si="16"/>
@@ -9158,7 +9227,7 @@
       </c>
       <c r="O48" s="29">
         <f t="shared" si="16"/>
-        <v>2840</v>
+        <v>3693</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="31"/>
@@ -9188,7 +9257,9 @@
       <c r="F49" s="10">
         <v>93</v>
       </c>
-      <c r="G49" s="10"/>
+      <c r="G49" s="10">
+        <v>105</v>
+      </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -9198,7 +9269,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="12">
         <f>SUM(C49:N49)</f>
-        <v>356</v>
+        <v>461</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -9210,10 +9281,10 @@
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="132" t="s">
+      <c r="A50" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="128"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="29">
         <f t="shared" ref="C50:O50" si="17">SUM(C49)</f>
         <v>77</v>
@@ -9232,7 +9303,7 @@
       </c>
       <c r="G50" s="29">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H50" s="29">
         <f t="shared" si="17"/>
@@ -9264,7 +9335,7 @@
       </c>
       <c r="O50" s="29">
         <f t="shared" si="17"/>
-        <v>356</v>
+        <v>461</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -9294,7 +9365,9 @@
       <c r="F51" s="10">
         <v>401</v>
       </c>
-      <c r="G51" s="10"/>
+      <c r="G51" s="10">
+        <v>429</v>
+      </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -9304,7 +9377,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="12">
         <f t="shared" ref="O51:O54" si="18">SUM(C51:N51)</f>
-        <v>1437</v>
+        <v>1866</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -9332,7 +9405,9 @@
       <c r="F52" s="10">
         <v>393</v>
       </c>
-      <c r="G52" s="10"/>
+      <c r="G52" s="10">
+        <v>424</v>
+      </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -9342,7 +9417,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="12">
         <f t="shared" si="18"/>
-        <v>1403</v>
+        <v>1827</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -9372,7 +9447,9 @@
       <c r="F53" s="10">
         <v>419</v>
       </c>
-      <c r="G53" s="10"/>
+      <c r="G53" s="10">
+        <v>430</v>
+      </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -9382,7 +9459,7 @@
       <c r="N53" s="10"/>
       <c r="O53" s="12">
         <f t="shared" si="18"/>
-        <v>1568</v>
+        <v>1998</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -9410,7 +9487,9 @@
       <c r="F54" s="10">
         <v>369</v>
       </c>
-      <c r="G54" s="10"/>
+      <c r="G54" s="10">
+        <v>413</v>
+      </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -9420,7 +9499,7 @@
       <c r="N54" s="10"/>
       <c r="O54" s="12">
         <f t="shared" si="18"/>
-        <v>1423</v>
+        <v>1836</v>
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -9432,10 +9511,10 @@
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="128"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="29">
         <f t="shared" ref="C55:O55" si="19">SUM(C53:C54)</f>
         <v>746</v>
@@ -9454,7 +9533,7 @@
       </c>
       <c r="G55" s="29">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="H55" s="29">
         <f t="shared" si="19"/>
@@ -9486,7 +9565,7 @@
       </c>
       <c r="O55" s="29">
         <f t="shared" si="19"/>
-        <v>2991</v>
+        <v>3834</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -9516,7 +9595,9 @@
       <c r="F56" s="10">
         <v>788</v>
       </c>
-      <c r="G56" s="10"/>
+      <c r="G56" s="10">
+        <v>843</v>
+      </c>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -9526,7 +9607,7 @@
       <c r="N56" s="10"/>
       <c r="O56" s="12">
         <f t="shared" ref="O56:O58" si="20">SUM(C56:N56)</f>
-        <v>2991</v>
+        <v>3834</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -9554,7 +9635,9 @@
       <c r="F57" s="10">
         <v>1</v>
       </c>
-      <c r="G57" s="10"/>
+      <c r="G57" s="140">
+        <v>0</v>
+      </c>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -9592,7 +9675,9 @@
       <c r="F58" s="10">
         <v>6</v>
       </c>
-      <c r="G58" s="10"/>
+      <c r="G58" s="10">
+        <v>9</v>
+      </c>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -9602,7 +9687,7 @@
       <c r="N58" s="10"/>
       <c r="O58" s="12">
         <f t="shared" si="20"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -9614,10 +9699,10 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="132" t="s">
+      <c r="A59" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="128"/>
+      <c r="B59" s="143"/>
       <c r="C59" s="29">
         <f t="shared" ref="C59:O59" si="21">SUM(C56:C58)</f>
         <v>754</v>
@@ -9636,7 +9721,7 @@
       </c>
       <c r="G59" s="29">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="H59" s="29">
         <f t="shared" si="21"/>
@@ -9668,7 +9753,7 @@
       </c>
       <c r="O59" s="29">
         <f t="shared" si="21"/>
-        <v>3038</v>
+        <v>3890</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -15525,8 +15610,8 @@
   </sheetPr>
   <dimension ref="A1:P1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15567,43 +15652,43 @@
       <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
       <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
       <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -15612,28 +15697,28 @@
       <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
       <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
-      <c r="B10" s="134"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="149"/>
       <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -15641,21 +15726,21 @@
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="126">
+      <c r="C11" s="141">
         <v>2024</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="128"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="143"/>
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -15713,43 +15798,43 @@
       <c r="B13" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="177">
-        <v>0</v>
-      </c>
-      <c r="D13" s="177">
-        <v>0</v>
-      </c>
-      <c r="E13" s="178">
-        <v>0</v>
-      </c>
-      <c r="F13" s="178">
-        <v>0</v>
-      </c>
-      <c r="G13" s="178">
-        <v>0</v>
-      </c>
-      <c r="H13" s="178">
-        <v>0</v>
-      </c>
-      <c r="I13" s="178">
-        <v>0</v>
-      </c>
-      <c r="J13" s="178">
-        <v>0</v>
-      </c>
-      <c r="K13" s="178">
-        <v>0</v>
-      </c>
-      <c r="L13" s="175">
-        <v>0</v>
-      </c>
-      <c r="M13" s="178">
-        <v>0</v>
-      </c>
-      <c r="N13" s="178">
-        <v>0</v>
-      </c>
-      <c r="O13" s="178">
+      <c r="C13" s="128">
+        <v>0</v>
+      </c>
+      <c r="D13" s="128">
+        <v>0</v>
+      </c>
+      <c r="E13" s="129">
+        <v>0</v>
+      </c>
+      <c r="F13" s="129">
+        <v>0</v>
+      </c>
+      <c r="G13" s="129">
+        <v>0</v>
+      </c>
+      <c r="H13" s="129">
+        <v>0</v>
+      </c>
+      <c r="I13" s="129">
+        <v>0</v>
+      </c>
+      <c r="J13" s="129">
+        <v>0</v>
+      </c>
+      <c r="K13" s="129">
+        <v>0</v>
+      </c>
+      <c r="L13" s="126">
+        <v>0</v>
+      </c>
+      <c r="M13" s="129">
+        <v>0</v>
+      </c>
+      <c r="N13" s="129">
+        <v>0</v>
+      </c>
+      <c r="O13" s="129">
         <f t="shared" ref="O13:O17" si="0">SUM(C13:N13)</f>
         <v>0</v>
       </c>
@@ -15760,43 +15845,43 @@
       <c r="B14" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="177">
-        <v>0</v>
-      </c>
-      <c r="D14" s="177">
-        <v>0</v>
-      </c>
-      <c r="E14" s="178">
-        <v>0</v>
-      </c>
-      <c r="F14" s="178">
-        <v>0</v>
-      </c>
-      <c r="G14" s="178">
-        <v>0</v>
-      </c>
-      <c r="H14" s="178">
-        <v>0</v>
-      </c>
-      <c r="I14" s="178">
-        <v>0</v>
-      </c>
-      <c r="J14" s="178">
-        <v>0</v>
-      </c>
-      <c r="K14" s="178">
-        <v>0</v>
-      </c>
-      <c r="L14" s="176">
-        <v>0</v>
-      </c>
-      <c r="M14" s="178">
-        <v>0</v>
-      </c>
-      <c r="N14" s="178">
-        <v>0</v>
-      </c>
-      <c r="O14" s="178">
+      <c r="C14" s="128">
+        <v>0</v>
+      </c>
+      <c r="D14" s="128">
+        <v>0</v>
+      </c>
+      <c r="E14" s="129">
+        <v>0</v>
+      </c>
+      <c r="F14" s="129">
+        <v>0</v>
+      </c>
+      <c r="G14" s="129">
+        <v>0</v>
+      </c>
+      <c r="H14" s="129">
+        <v>0</v>
+      </c>
+      <c r="I14" s="129">
+        <v>0</v>
+      </c>
+      <c r="J14" s="129">
+        <v>0</v>
+      </c>
+      <c r="K14" s="129">
+        <v>0</v>
+      </c>
+      <c r="L14" s="127">
+        <v>0</v>
+      </c>
+      <c r="M14" s="129">
+        <v>0</v>
+      </c>
+      <c r="N14" s="129">
+        <v>0</v>
+      </c>
+      <c r="O14" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15807,43 +15892,43 @@
       <c r="B15" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="177">
+      <c r="C15" s="128">
         <v>319465</v>
       </c>
-      <c r="D15" s="177">
+      <c r="D15" s="128">
         <v>160262</v>
       </c>
-      <c r="E15" s="177">
+      <c r="E15" s="128">
         <v>161460</v>
       </c>
-      <c r="F15" s="178">
+      <c r="F15" s="129">
         <v>323118</v>
       </c>
-      <c r="G15" s="178">
-        <v>0</v>
-      </c>
-      <c r="H15" s="178">
-        <v>0</v>
-      </c>
-      <c r="I15" s="178">
-        <v>0</v>
-      </c>
-      <c r="J15" s="178">
-        <v>0</v>
-      </c>
-      <c r="K15" s="178">
-        <v>0</v>
-      </c>
-      <c r="L15" s="176">
-        <v>0</v>
-      </c>
-      <c r="M15" s="178">
-        <v>0</v>
-      </c>
-      <c r="N15" s="178">
-        <v>0</v>
-      </c>
-      <c r="O15" s="178">
+      <c r="G15" s="129">
+        <v>0</v>
+      </c>
+      <c r="H15" s="129">
+        <v>0</v>
+      </c>
+      <c r="I15" s="129">
+        <v>0</v>
+      </c>
+      <c r="J15" s="129">
+        <v>0</v>
+      </c>
+      <c r="K15" s="129">
+        <v>0</v>
+      </c>
+      <c r="L15" s="127">
+        <v>0</v>
+      </c>
+      <c r="M15" s="129">
+        <v>0</v>
+      </c>
+      <c r="N15" s="129">
+        <v>0</v>
+      </c>
+      <c r="O15" s="129">
         <f t="shared" si="0"/>
         <v>964305</v>
       </c>
@@ -15854,45 +15939,45 @@
       <c r="B16" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="177">
+      <c r="C16" s="128">
         <v>2893</v>
       </c>
-      <c r="D16" s="177">
+      <c r="D16" s="128">
         <v>2893</v>
       </c>
-      <c r="E16" s="177">
+      <c r="E16" s="128">
         <v>5843</v>
       </c>
-      <c r="F16" s="178">
+      <c r="F16" s="129">
         <v>2900</v>
       </c>
-      <c r="G16" s="178">
-        <v>0</v>
-      </c>
-      <c r="H16" s="178">
-        <v>0</v>
-      </c>
-      <c r="I16" s="178">
-        <v>0</v>
-      </c>
-      <c r="J16" s="178">
-        <v>0</v>
-      </c>
-      <c r="K16" s="178">
-        <v>0</v>
-      </c>
-      <c r="L16" s="176">
-        <v>0</v>
-      </c>
-      <c r="M16" s="178">
-        <v>0</v>
-      </c>
-      <c r="N16" s="178">
-        <v>0</v>
-      </c>
-      <c r="O16" s="178">
+      <c r="G16" s="129">
+        <v>2883</v>
+      </c>
+      <c r="H16" s="129">
+        <v>0</v>
+      </c>
+      <c r="I16" s="129">
+        <v>0</v>
+      </c>
+      <c r="J16" s="129">
+        <v>0</v>
+      </c>
+      <c r="K16" s="129">
+        <v>0</v>
+      </c>
+      <c r="L16" s="127">
+        <v>0</v>
+      </c>
+      <c r="M16" s="129">
+        <v>0</v>
+      </c>
+      <c r="N16" s="129">
+        <v>0</v>
+      </c>
+      <c r="O16" s="129">
         <f t="shared" si="0"/>
-        <v>14529</v>
+        <v>17412</v>
       </c>
       <c r="P16" s="32"/>
     </row>
@@ -15901,104 +15986,104 @@
       <c r="B17" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="177">
+      <c r="C17" s="128">
         <v>876</v>
       </c>
-      <c r="D17" s="177">
+      <c r="D17" s="128">
         <v>837</v>
       </c>
-      <c r="E17" s="177">
+      <c r="E17" s="128">
         <v>1775</v>
       </c>
-      <c r="F17" s="178">
+      <c r="F17" s="129">
         <v>826</v>
       </c>
-      <c r="G17" s="178">
-        <v>0</v>
-      </c>
-      <c r="H17" s="178">
-        <v>0</v>
-      </c>
-      <c r="I17" s="178">
-        <v>0</v>
-      </c>
-      <c r="J17" s="178">
-        <v>0</v>
-      </c>
-      <c r="K17" s="178">
-        <v>0</v>
-      </c>
-      <c r="L17" s="176">
-        <v>0</v>
-      </c>
-      <c r="M17" s="178">
-        <v>0</v>
-      </c>
-      <c r="N17" s="178">
-        <v>0</v>
-      </c>
-      <c r="O17" s="178">
+      <c r="G17" s="129">
+        <v>816</v>
+      </c>
+      <c r="H17" s="129">
+        <v>0</v>
+      </c>
+      <c r="I17" s="129">
+        <v>0</v>
+      </c>
+      <c r="J17" s="129">
+        <v>0</v>
+      </c>
+      <c r="K17" s="129">
+        <v>0</v>
+      </c>
+      <c r="L17" s="127">
+        <v>0</v>
+      </c>
+      <c r="M17" s="129">
+        <v>0</v>
+      </c>
+      <c r="N17" s="129">
+        <v>0</v>
+      </c>
+      <c r="O17" s="129">
         <f t="shared" si="0"/>
-        <v>4314</v>
+        <v>5130</v>
       </c>
       <c r="P17" s="32"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="179">
+      <c r="B18" s="153"/>
+      <c r="C18" s="130">
         <f>SUM(C13:C17)</f>
         <v>323234</v>
       </c>
-      <c r="D18" s="179">
+      <c r="D18" s="130">
         <f t="shared" ref="D18:O18" si="1">SUM(D13:D17)</f>
         <v>163992</v>
       </c>
-      <c r="E18" s="179">
+      <c r="E18" s="130">
         <f t="shared" si="1"/>
         <v>169078</v>
       </c>
-      <c r="F18" s="180">
+      <c r="F18" s="131">
         <f t="shared" si="1"/>
         <v>326844</v>
       </c>
-      <c r="G18" s="180">
+      <c r="G18" s="131">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="180">
+        <v>3699</v>
+      </c>
+      <c r="H18" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="180">
+      <c r="I18" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="180">
+      <c r="J18" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="180">
+      <c r="K18" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="180">
+      <c r="L18" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="180">
+      <c r="M18" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="180">
+      <c r="N18" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="180">
+      <c r="O18" s="131">
         <f t="shared" si="1"/>
-        <v>983148</v>
+        <v>986847</v>
       </c>
       <c r="P18" s="32"/>
     </row>
@@ -16025,21 +16110,21 @@
       <c r="B20" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="146">
+      <c r="C20" s="161">
         <v>2024</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="138"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="153"/>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -16097,43 +16182,43 @@
       <c r="B22" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="178">
-        <v>0</v>
-      </c>
-      <c r="D22" s="178">
-        <v>0</v>
-      </c>
-      <c r="E22" s="178">
-        <v>0</v>
-      </c>
-      <c r="F22" s="178">
-        <v>0</v>
-      </c>
-      <c r="G22" s="178">
-        <v>0</v>
-      </c>
-      <c r="H22" s="178">
-        <v>0</v>
-      </c>
-      <c r="I22" s="178">
-        <v>0</v>
-      </c>
-      <c r="J22" s="178">
-        <v>0</v>
-      </c>
-      <c r="K22" s="178">
-        <v>0</v>
-      </c>
-      <c r="L22" s="178">
-        <v>0</v>
-      </c>
-      <c r="M22" s="178">
-        <v>0</v>
-      </c>
-      <c r="N22" s="178">
-        <v>0</v>
-      </c>
-      <c r="O22" s="178">
+      <c r="C22" s="129">
+        <v>0</v>
+      </c>
+      <c r="D22" s="129">
+        <v>0</v>
+      </c>
+      <c r="E22" s="129">
+        <v>0</v>
+      </c>
+      <c r="F22" s="129">
+        <v>0</v>
+      </c>
+      <c r="G22" s="129">
+        <v>0</v>
+      </c>
+      <c r="H22" s="129">
+        <v>0</v>
+      </c>
+      <c r="I22" s="129">
+        <v>0</v>
+      </c>
+      <c r="J22" s="129">
+        <v>0</v>
+      </c>
+      <c r="K22" s="129">
+        <v>0</v>
+      </c>
+      <c r="L22" s="129">
+        <v>0</v>
+      </c>
+      <c r="M22" s="129">
+        <v>0</v>
+      </c>
+      <c r="N22" s="129">
+        <v>0</v>
+      </c>
+      <c r="O22" s="129">
         <f t="shared" ref="O22:O26" si="2">SUM(C22:N22)</f>
         <v>0</v>
       </c>
@@ -16144,43 +16229,43 @@
       <c r="B23" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="178">
-        <v>0</v>
-      </c>
-      <c r="D23" s="178">
-        <v>0</v>
-      </c>
-      <c r="E23" s="178">
-        <v>0</v>
-      </c>
-      <c r="F23" s="178">
-        <v>0</v>
-      </c>
-      <c r="G23" s="178">
-        <v>0</v>
-      </c>
-      <c r="H23" s="178">
-        <v>0</v>
-      </c>
-      <c r="I23" s="178">
-        <v>0</v>
-      </c>
-      <c r="J23" s="178">
-        <v>0</v>
-      </c>
-      <c r="K23" s="178">
-        <v>0</v>
-      </c>
-      <c r="L23" s="178">
-        <v>0</v>
-      </c>
-      <c r="M23" s="178">
-        <v>0</v>
-      </c>
-      <c r="N23" s="178">
-        <v>0</v>
-      </c>
-      <c r="O23" s="178">
+      <c r="C23" s="129">
+        <v>0</v>
+      </c>
+      <c r="D23" s="129">
+        <v>0</v>
+      </c>
+      <c r="E23" s="129">
+        <v>0</v>
+      </c>
+      <c r="F23" s="129">
+        <v>0</v>
+      </c>
+      <c r="G23" s="129">
+        <v>0</v>
+      </c>
+      <c r="H23" s="129">
+        <v>0</v>
+      </c>
+      <c r="I23" s="129">
+        <v>0</v>
+      </c>
+      <c r="J23" s="129">
+        <v>0</v>
+      </c>
+      <c r="K23" s="129">
+        <v>0</v>
+      </c>
+      <c r="L23" s="129">
+        <v>0</v>
+      </c>
+      <c r="M23" s="129">
+        <v>0</v>
+      </c>
+      <c r="N23" s="129">
+        <v>0</v>
+      </c>
+      <c r="O23" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16191,43 +16276,43 @@
       <c r="B24" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="177">
+      <c r="C24" s="128">
         <v>1670</v>
       </c>
-      <c r="D24" s="177">
-        <v>0</v>
-      </c>
-      <c r="E24" s="177">
+      <c r="D24" s="128">
+        <v>0</v>
+      </c>
+      <c r="E24" s="128">
         <v>3930</v>
       </c>
-      <c r="F24" s="178">
+      <c r="F24" s="129">
         <v>1217</v>
       </c>
-      <c r="G24" s="178">
-        <v>0</v>
-      </c>
-      <c r="H24" s="178">
-        <v>0</v>
-      </c>
-      <c r="I24" s="178">
-        <v>0</v>
-      </c>
-      <c r="J24" s="178">
-        <v>0</v>
-      </c>
-      <c r="K24" s="181">
-        <v>0</v>
-      </c>
-      <c r="L24" s="181">
-        <v>0</v>
-      </c>
-      <c r="M24" s="181">
-        <v>0</v>
-      </c>
-      <c r="N24" s="181">
-        <v>0</v>
-      </c>
-      <c r="O24" s="178">
+      <c r="G24" s="129">
+        <v>0</v>
+      </c>
+      <c r="H24" s="129">
+        <v>0</v>
+      </c>
+      <c r="I24" s="129">
+        <v>0</v>
+      </c>
+      <c r="J24" s="129">
+        <v>0</v>
+      </c>
+      <c r="K24" s="132">
+        <v>0</v>
+      </c>
+      <c r="L24" s="132">
+        <v>0</v>
+      </c>
+      <c r="M24" s="132">
+        <v>0</v>
+      </c>
+      <c r="N24" s="132">
+        <v>0</v>
+      </c>
+      <c r="O24" s="129">
         <f t="shared" si="2"/>
         <v>6817</v>
       </c>
@@ -16238,45 +16323,45 @@
       <c r="B25" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="177">
+      <c r="C25" s="128">
         <v>3</v>
       </c>
-      <c r="D25" s="177">
+      <c r="D25" s="128">
         <v>1</v>
       </c>
-      <c r="E25" s="177">
+      <c r="E25" s="128">
         <v>32</v>
       </c>
-      <c r="F25" s="178">
+      <c r="F25" s="129">
         <v>5</v>
       </c>
-      <c r="G25" s="178">
-        <v>0</v>
-      </c>
-      <c r="H25" s="178">
-        <v>0</v>
-      </c>
-      <c r="I25" s="178">
-        <v>0</v>
-      </c>
-      <c r="J25" s="178">
-        <v>0</v>
-      </c>
-      <c r="K25" s="178">
-        <v>0</v>
-      </c>
-      <c r="L25" s="178">
-        <v>0</v>
-      </c>
-      <c r="M25" s="178">
-        <v>0</v>
-      </c>
-      <c r="N25" s="178">
-        <v>0</v>
-      </c>
-      <c r="O25" s="178">
+      <c r="G25" s="129">
+        <v>4</v>
+      </c>
+      <c r="H25" s="129">
+        <v>0</v>
+      </c>
+      <c r="I25" s="129">
+        <v>0</v>
+      </c>
+      <c r="J25" s="129">
+        <v>0</v>
+      </c>
+      <c r="K25" s="129">
+        <v>0</v>
+      </c>
+      <c r="L25" s="129">
+        <v>0</v>
+      </c>
+      <c r="M25" s="129">
+        <v>0</v>
+      </c>
+      <c r="N25" s="129">
+        <v>0</v>
+      </c>
+      <c r="O25" s="129">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P25" s="32"/>
     </row>
@@ -16285,104 +16370,104 @@
       <c r="B26" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C26" s="128">
         <v>6</v>
       </c>
-      <c r="D26" s="177">
+      <c r="D26" s="128">
         <v>2</v>
       </c>
-      <c r="E26" s="177">
-        <v>0</v>
-      </c>
-      <c r="F26" s="178">
-        <v>0</v>
-      </c>
-      <c r="G26" s="178">
-        <v>0</v>
-      </c>
-      <c r="H26" s="178">
-        <v>0</v>
-      </c>
-      <c r="I26" s="178">
-        <v>0</v>
-      </c>
-      <c r="J26" s="178">
-        <v>0</v>
-      </c>
-      <c r="K26" s="178">
-        <v>0</v>
-      </c>
-      <c r="L26" s="178">
-        <v>0</v>
-      </c>
-      <c r="M26" s="178">
-        <v>0</v>
-      </c>
-      <c r="N26" s="178">
-        <v>0</v>
-      </c>
-      <c r="O26" s="178">
+      <c r="E26" s="128">
+        <v>0</v>
+      </c>
+      <c r="F26" s="129">
+        <v>0</v>
+      </c>
+      <c r="G26" s="129">
+        <v>5</v>
+      </c>
+      <c r="H26" s="129">
+        <v>0</v>
+      </c>
+      <c r="I26" s="129">
+        <v>0</v>
+      </c>
+      <c r="J26" s="129">
+        <v>0</v>
+      </c>
+      <c r="K26" s="129">
+        <v>0</v>
+      </c>
+      <c r="L26" s="129">
+        <v>0</v>
+      </c>
+      <c r="M26" s="129">
+        <v>0</v>
+      </c>
+      <c r="N26" s="129">
+        <v>0</v>
+      </c>
+      <c r="O26" s="129">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="180">
+      <c r="B27" s="153"/>
+      <c r="C27" s="131">
         <f t="shared" ref="C27:O27" si="3">SUM(C22:C26)</f>
         <v>1679</v>
       </c>
-      <c r="D27" s="180">
+      <c r="D27" s="131">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E27" s="180">
+      <c r="E27" s="131">
         <f t="shared" si="3"/>
         <v>3962</v>
       </c>
-      <c r="F27" s="180">
+      <c r="F27" s="131">
         <f t="shared" si="3"/>
         <v>1222</v>
       </c>
-      <c r="G27" s="180">
+      <c r="G27" s="131">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="180">
+        <v>9</v>
+      </c>
+      <c r="H27" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="180">
+      <c r="I27" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J27" s="180">
+      <c r="J27" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="180">
+      <c r="K27" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L27" s="180">
+      <c r="L27" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M27" s="180">
+      <c r="M27" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N27" s="180">
+      <c r="N27" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="180">
+      <c r="O27" s="131">
         <f t="shared" si="3"/>
-        <v>6866</v>
+        <v>6875</v>
       </c>
       <c r="P27" s="32"/>
     </row>
@@ -16405,28 +16490,28 @@
       <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="149"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
       <c r="P29" s="32"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150"/>
-      <c r="B30" s="151"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="124"/>
       <c r="D30" s="124"/>
       <c r="E30" s="124"/>
@@ -16447,21 +16532,21 @@
       <c r="B31" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="146">
+      <c r="C31" s="161">
         <v>2024</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="138"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="153"/>
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16519,43 +16604,43 @@
       <c r="B33" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="178">
-        <v>0</v>
-      </c>
-      <c r="D33" s="178">
-        <v>0</v>
-      </c>
-      <c r="E33" s="178">
-        <v>0</v>
-      </c>
-      <c r="F33" s="178">
-        <v>0</v>
-      </c>
-      <c r="G33" s="178">
-        <v>0</v>
-      </c>
-      <c r="H33" s="178">
-        <v>0</v>
-      </c>
-      <c r="I33" s="178">
-        <v>0</v>
-      </c>
-      <c r="J33" s="178">
-        <v>0</v>
-      </c>
-      <c r="K33" s="178">
-        <v>0</v>
-      </c>
-      <c r="L33" s="178">
-        <v>0</v>
-      </c>
-      <c r="M33" s="178">
-        <v>0</v>
-      </c>
-      <c r="N33" s="178">
-        <v>0</v>
-      </c>
-      <c r="O33" s="178">
+      <c r="C33" s="129">
+        <v>0</v>
+      </c>
+      <c r="D33" s="129">
+        <v>0</v>
+      </c>
+      <c r="E33" s="129">
+        <v>0</v>
+      </c>
+      <c r="F33" s="129">
+        <v>0</v>
+      </c>
+      <c r="G33" s="129">
+        <v>0</v>
+      </c>
+      <c r="H33" s="129">
+        <v>0</v>
+      </c>
+      <c r="I33" s="129">
+        <v>0</v>
+      </c>
+      <c r="J33" s="129">
+        <v>0</v>
+      </c>
+      <c r="K33" s="129">
+        <v>0</v>
+      </c>
+      <c r="L33" s="129">
+        <v>0</v>
+      </c>
+      <c r="M33" s="129">
+        <v>0</v>
+      </c>
+      <c r="N33" s="129">
+        <v>0</v>
+      </c>
+      <c r="O33" s="129">
         <f t="shared" ref="O33:O37" si="4">SUM(C33:N33)</f>
         <v>0</v>
       </c>
@@ -16566,43 +16651,43 @@
       <c r="B34" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="178">
-        <v>0</v>
-      </c>
-      <c r="D34" s="178">
-        <v>0</v>
-      </c>
-      <c r="E34" s="178">
-        <v>0</v>
-      </c>
-      <c r="F34" s="178">
-        <v>0</v>
-      </c>
-      <c r="G34" s="178">
-        <v>0</v>
-      </c>
-      <c r="H34" s="178">
-        <v>0</v>
-      </c>
-      <c r="I34" s="178">
-        <v>0</v>
-      </c>
-      <c r="J34" s="178">
-        <v>0</v>
-      </c>
-      <c r="K34" s="178">
-        <v>0</v>
-      </c>
-      <c r="L34" s="178">
-        <v>0</v>
-      </c>
-      <c r="M34" s="178">
-        <v>0</v>
-      </c>
-      <c r="N34" s="178">
-        <v>0</v>
-      </c>
-      <c r="O34" s="178">
+      <c r="C34" s="129">
+        <v>0</v>
+      </c>
+      <c r="D34" s="129">
+        <v>0</v>
+      </c>
+      <c r="E34" s="129">
+        <v>0</v>
+      </c>
+      <c r="F34" s="129">
+        <v>0</v>
+      </c>
+      <c r="G34" s="129">
+        <v>0</v>
+      </c>
+      <c r="H34" s="129">
+        <v>0</v>
+      </c>
+      <c r="I34" s="129">
+        <v>0</v>
+      </c>
+      <c r="J34" s="129">
+        <v>0</v>
+      </c>
+      <c r="K34" s="129">
+        <v>0</v>
+      </c>
+      <c r="L34" s="129">
+        <v>0</v>
+      </c>
+      <c r="M34" s="129">
+        <v>0</v>
+      </c>
+      <c r="N34" s="129">
+        <v>0</v>
+      </c>
+      <c r="O34" s="129">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -16613,43 +16698,43 @@
       <c r="B35" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="177">
+      <c r="C35" s="128">
         <v>532429672.56999999</v>
       </c>
-      <c r="D35" s="177">
+      <c r="D35" s="128">
         <v>260382439.80000001</v>
       </c>
-      <c r="E35" s="177">
+      <c r="E35" s="128">
         <v>276095106.67000002</v>
       </c>
-      <c r="F35" s="177">
+      <c r="F35" s="128">
         <v>539898916.41999996</v>
       </c>
-      <c r="G35" s="177">
-        <v>0</v>
-      </c>
-      <c r="H35" s="177">
-        <v>0</v>
-      </c>
-      <c r="I35" s="177">
-        <v>0</v>
-      </c>
-      <c r="J35" s="177">
-        <v>0</v>
-      </c>
-      <c r="K35" s="182">
-        <v>0</v>
-      </c>
-      <c r="L35" s="182">
-        <v>0</v>
-      </c>
-      <c r="M35" s="182">
-        <v>0</v>
-      </c>
-      <c r="N35" s="182">
-        <v>0</v>
-      </c>
-      <c r="O35" s="177">
+      <c r="G35" s="128">
+        <v>0</v>
+      </c>
+      <c r="H35" s="128">
+        <v>0</v>
+      </c>
+      <c r="I35" s="128">
+        <v>0</v>
+      </c>
+      <c r="J35" s="128">
+        <v>0</v>
+      </c>
+      <c r="K35" s="133">
+        <v>0</v>
+      </c>
+      <c r="L35" s="133">
+        <v>0</v>
+      </c>
+      <c r="M35" s="133">
+        <v>0</v>
+      </c>
+      <c r="N35" s="133">
+        <v>0</v>
+      </c>
+      <c r="O35" s="128">
         <f t="shared" si="4"/>
         <v>1608806135.46</v>
       </c>
@@ -16660,45 +16745,45 @@
       <c r="B36" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="183">
+      <c r="C36" s="134">
         <v>9320651.3200000003</v>
       </c>
-      <c r="D36" s="183">
+      <c r="D36" s="134">
         <v>9310046.9399999995</v>
       </c>
-      <c r="E36" s="177">
+      <c r="E36" s="128">
         <v>18602038.41</v>
       </c>
-      <c r="F36" s="177">
+      <c r="F36" s="128">
         <v>9310827.9100000001</v>
       </c>
-      <c r="G36" s="177">
-        <v>0</v>
-      </c>
-      <c r="H36" s="177">
-        <v>0</v>
-      </c>
-      <c r="I36" s="177">
-        <v>0</v>
-      </c>
-      <c r="J36" s="177">
-        <v>0</v>
-      </c>
-      <c r="K36" s="177">
-        <v>0</v>
-      </c>
-      <c r="L36" s="177">
-        <v>0</v>
-      </c>
-      <c r="M36" s="177">
-        <v>0</v>
-      </c>
-      <c r="N36" s="177">
-        <v>0</v>
-      </c>
-      <c r="O36" s="177">
+      <c r="G36" s="128">
+        <v>9446098.2599999998</v>
+      </c>
+      <c r="H36" s="128">
+        <v>0</v>
+      </c>
+      <c r="I36" s="128">
+        <v>0</v>
+      </c>
+      <c r="J36" s="128">
+        <v>0</v>
+      </c>
+      <c r="K36" s="128">
+        <v>0</v>
+      </c>
+      <c r="L36" s="128">
+        <v>0</v>
+      </c>
+      <c r="M36" s="128">
+        <v>0</v>
+      </c>
+      <c r="N36" s="128">
+        <v>0</v>
+      </c>
+      <c r="O36" s="128">
         <f t="shared" si="4"/>
-        <v>46543564.579999998</v>
+        <v>55989662.839999996</v>
       </c>
       <c r="P36" s="32"/>
     </row>
@@ -16707,104 +16792,104 @@
       <c r="B37" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="183">
+      <c r="C37" s="134">
         <v>2058277.25</v>
       </c>
-      <c r="D37" s="183">
+      <c r="D37" s="134">
         <v>1977203.37</v>
       </c>
-      <c r="E37" s="177">
+      <c r="E37" s="128">
         <v>4204578.09</v>
       </c>
-      <c r="F37" s="177">
+      <c r="F37" s="128">
         <v>1964486.01</v>
       </c>
-      <c r="G37" s="177">
-        <v>0</v>
-      </c>
-      <c r="H37" s="177">
-        <v>0</v>
-      </c>
-      <c r="I37" s="177">
-        <v>0</v>
-      </c>
-      <c r="J37" s="177">
-        <v>0</v>
-      </c>
-      <c r="K37" s="177">
-        <v>0</v>
-      </c>
-      <c r="L37" s="177">
-        <v>0</v>
-      </c>
-      <c r="M37" s="177">
-        <v>0</v>
-      </c>
-      <c r="N37" s="177">
-        <v>0</v>
-      </c>
-      <c r="O37" s="177">
+      <c r="G37" s="128">
+        <v>1980843.15</v>
+      </c>
+      <c r="H37" s="128">
+        <v>0</v>
+      </c>
+      <c r="I37" s="128">
+        <v>0</v>
+      </c>
+      <c r="J37" s="128">
+        <v>0</v>
+      </c>
+      <c r="K37" s="128">
+        <v>0</v>
+      </c>
+      <c r="L37" s="128">
+        <v>0</v>
+      </c>
+      <c r="M37" s="128">
+        <v>0</v>
+      </c>
+      <c r="N37" s="128">
+        <v>0</v>
+      </c>
+      <c r="O37" s="128">
         <f t="shared" si="4"/>
-        <v>10204544.720000001</v>
+        <v>12185387.870000001</v>
       </c>
       <c r="P37" s="32"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="137" t="s">
+      <c r="A38" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="138"/>
-      <c r="C38" s="179">
+      <c r="B38" s="153"/>
+      <c r="C38" s="130">
         <f t="shared" ref="C38:O38" si="5">SUM(C33:C37)</f>
         <v>543808601.13999999</v>
       </c>
-      <c r="D38" s="179">
+      <c r="D38" s="130">
         <f t="shared" si="5"/>
         <v>271669690.11000001</v>
       </c>
-      <c r="E38" s="179">
+      <c r="E38" s="130">
         <f t="shared" si="5"/>
         <v>298901723.17000002</v>
       </c>
-      <c r="F38" s="179">
+      <c r="F38" s="130">
         <f t="shared" si="5"/>
         <v>551174230.33999991</v>
       </c>
-      <c r="G38" s="179">
+      <c r="G38" s="130">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="179">
+        <v>11426941.41</v>
+      </c>
+      <c r="H38" s="130">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I38" s="179">
+      <c r="I38" s="130">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J38" s="179">
+      <c r="J38" s="130">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K38" s="179">
+      <c r="K38" s="130">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L38" s="179">
+      <c r="L38" s="130">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M38" s="179">
+      <c r="M38" s="130">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N38" s="179">
+      <c r="N38" s="130">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O38" s="179">
+      <c r="O38" s="130">
         <f t="shared" si="5"/>
-        <v>1665554244.76</v>
+        <v>1676981186.1699998</v>
       </c>
       <c r="P38" s="32"/>
     </row>
@@ -16831,21 +16916,21 @@
       <c r="B40" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="139">
+      <c r="C40" s="154">
         <v>2024</v>
       </c>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="140"/>
-      <c r="O40" s="141"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="155"/>
+      <c r="O40" s="156"/>
       <c r="P40" s="32"/>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16903,43 +16988,43 @@
       <c r="B42" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="177">
-        <v>0</v>
-      </c>
-      <c r="D42" s="177">
-        <v>0</v>
-      </c>
-      <c r="E42" s="177">
-        <v>0</v>
-      </c>
-      <c r="F42" s="177">
-        <v>0</v>
-      </c>
-      <c r="G42" s="177">
-        <v>0</v>
-      </c>
-      <c r="H42" s="177">
-        <v>0</v>
-      </c>
-      <c r="I42" s="184">
-        <v>0</v>
-      </c>
-      <c r="J42" s="177">
-        <v>0</v>
-      </c>
-      <c r="K42" s="177">
-        <v>0</v>
-      </c>
-      <c r="L42" s="177">
-        <v>0</v>
-      </c>
-      <c r="M42" s="177">
-        <v>0</v>
-      </c>
-      <c r="N42" s="177">
-        <v>0</v>
-      </c>
-      <c r="O42" s="177">
+      <c r="C42" s="128">
+        <v>0</v>
+      </c>
+      <c r="D42" s="128">
+        <v>0</v>
+      </c>
+      <c r="E42" s="128">
+        <v>0</v>
+      </c>
+      <c r="F42" s="128">
+        <v>0</v>
+      </c>
+      <c r="G42" s="128">
+        <v>0</v>
+      </c>
+      <c r="H42" s="128">
+        <v>0</v>
+      </c>
+      <c r="I42" s="135">
+        <v>0</v>
+      </c>
+      <c r="J42" s="128">
+        <v>0</v>
+      </c>
+      <c r="K42" s="128">
+        <v>0</v>
+      </c>
+      <c r="L42" s="128">
+        <v>0</v>
+      </c>
+      <c r="M42" s="128">
+        <v>0</v>
+      </c>
+      <c r="N42" s="128">
+        <v>0</v>
+      </c>
+      <c r="O42" s="128">
         <f t="shared" ref="O42:O46" si="6">SUM(C42:N42)</f>
         <v>0</v>
       </c>
@@ -16950,43 +17035,43 @@
       <c r="B43" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="177">
-        <v>0</v>
-      </c>
-      <c r="D43" s="177">
-        <v>0</v>
-      </c>
-      <c r="E43" s="177">
-        <v>0</v>
-      </c>
-      <c r="F43" s="177">
-        <v>0</v>
-      </c>
-      <c r="G43" s="177">
-        <v>0</v>
-      </c>
-      <c r="H43" s="177">
-        <v>0</v>
-      </c>
-      <c r="I43" s="184">
-        <v>0</v>
-      </c>
-      <c r="J43" s="177">
-        <v>0</v>
-      </c>
-      <c r="K43" s="177">
-        <v>0</v>
-      </c>
-      <c r="L43" s="177">
-        <v>0</v>
-      </c>
-      <c r="M43" s="177">
-        <v>0</v>
-      </c>
-      <c r="N43" s="177">
-        <v>0</v>
-      </c>
-      <c r="O43" s="177">
+      <c r="C43" s="128">
+        <v>0</v>
+      </c>
+      <c r="D43" s="128">
+        <v>0</v>
+      </c>
+      <c r="E43" s="128">
+        <v>0</v>
+      </c>
+      <c r="F43" s="128">
+        <v>0</v>
+      </c>
+      <c r="G43" s="128">
+        <v>0</v>
+      </c>
+      <c r="H43" s="128">
+        <v>0</v>
+      </c>
+      <c r="I43" s="135">
+        <v>0</v>
+      </c>
+      <c r="J43" s="128">
+        <v>0</v>
+      </c>
+      <c r="K43" s="128">
+        <v>0</v>
+      </c>
+      <c r="L43" s="128">
+        <v>0</v>
+      </c>
+      <c r="M43" s="128">
+        <v>0</v>
+      </c>
+      <c r="N43" s="128">
+        <v>0</v>
+      </c>
+      <c r="O43" s="128">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -16997,43 +17082,43 @@
       <c r="B44" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="177">
+      <c r="C44" s="128">
         <v>1752339.58</v>
       </c>
-      <c r="D44" s="177">
+      <c r="D44" s="128">
         <v>1467338.8</v>
       </c>
-      <c r="E44" s="177">
+      <c r="E44" s="128">
         <v>1947001.8</v>
       </c>
-      <c r="F44" s="177">
+      <c r="F44" s="128">
         <v>3545052.28</v>
       </c>
-      <c r="G44" s="177">
-        <v>0</v>
-      </c>
-      <c r="H44" s="177">
-        <v>0</v>
-      </c>
-      <c r="I44" s="177">
-        <v>0</v>
-      </c>
-      <c r="J44" s="177">
-        <v>0</v>
-      </c>
-      <c r="K44" s="182">
-        <v>0</v>
-      </c>
-      <c r="L44" s="182">
-        <v>0</v>
-      </c>
-      <c r="M44" s="182">
-        <v>0</v>
-      </c>
-      <c r="N44" s="182">
-        <v>0</v>
-      </c>
-      <c r="O44" s="177">
+      <c r="G44" s="128">
+        <v>0</v>
+      </c>
+      <c r="H44" s="128">
+        <v>0</v>
+      </c>
+      <c r="I44" s="128">
+        <v>0</v>
+      </c>
+      <c r="J44" s="128">
+        <v>0</v>
+      </c>
+      <c r="K44" s="133">
+        <v>0</v>
+      </c>
+      <c r="L44" s="133">
+        <v>0</v>
+      </c>
+      <c r="M44" s="133">
+        <v>0</v>
+      </c>
+      <c r="N44" s="133">
+        <v>0</v>
+      </c>
+      <c r="O44" s="128">
         <f t="shared" si="6"/>
         <v>8711732.459999999</v>
       </c>
@@ -17044,45 +17129,45 @@
       <c r="B45" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="177">
+      <c r="C45" s="128">
         <v>7177.97</v>
       </c>
-      <c r="D45" s="177">
+      <c r="D45" s="128">
         <v>4150.2</v>
       </c>
-      <c r="E45" s="177">
+      <c r="E45" s="128">
         <v>82015.72</v>
       </c>
-      <c r="F45" s="177">
+      <c r="F45" s="128">
         <v>15957.36</v>
       </c>
-      <c r="G45" s="177">
-        <v>0</v>
-      </c>
-      <c r="H45" s="177">
-        <v>0</v>
-      </c>
-      <c r="I45" s="184">
-        <v>0</v>
-      </c>
-      <c r="J45" s="177">
-        <v>0</v>
-      </c>
-      <c r="K45" s="185">
-        <v>0</v>
-      </c>
-      <c r="L45" s="177">
-        <v>0</v>
-      </c>
-      <c r="M45" s="177">
-        <v>0</v>
-      </c>
-      <c r="N45" s="177">
-        <v>0</v>
-      </c>
-      <c r="O45" s="177">
+      <c r="G45" s="128">
+        <v>9221.6299999999992</v>
+      </c>
+      <c r="H45" s="128">
+        <v>0</v>
+      </c>
+      <c r="I45" s="135">
+        <v>0</v>
+      </c>
+      <c r="J45" s="128">
+        <v>0</v>
+      </c>
+      <c r="K45" s="136">
+        <v>0</v>
+      </c>
+      <c r="L45" s="128">
+        <v>0</v>
+      </c>
+      <c r="M45" s="128">
+        <v>0</v>
+      </c>
+      <c r="N45" s="128">
+        <v>0</v>
+      </c>
+      <c r="O45" s="128">
         <f t="shared" si="6"/>
-        <v>109301.25</v>
+        <v>118522.88</v>
       </c>
       <c r="P45" s="32"/>
     </row>
@@ -17091,104 +17176,104 @@
       <c r="B46" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="177">
+      <c r="C46" s="128">
         <v>1479.44</v>
       </c>
-      <c r="D46" s="177">
-        <v>0</v>
-      </c>
-      <c r="E46" s="177">
+      <c r="D46" s="128">
+        <v>0</v>
+      </c>
+      <c r="E46" s="128">
         <v>9147.58</v>
       </c>
-      <c r="F46" s="177">
-        <v>0</v>
-      </c>
-      <c r="G46" s="177">
-        <v>0</v>
-      </c>
-      <c r="H46" s="177">
-        <v>0</v>
-      </c>
-      <c r="I46" s="184">
-        <v>0</v>
-      </c>
-      <c r="J46" s="177">
-        <v>0</v>
-      </c>
-      <c r="K46" s="177">
-        <v>0</v>
-      </c>
-      <c r="L46" s="177">
-        <v>0</v>
-      </c>
-      <c r="M46" s="177">
-        <v>0</v>
-      </c>
-      <c r="N46" s="177">
-        <v>0</v>
-      </c>
-      <c r="O46" s="177">
+      <c r="F46" s="128">
+        <v>0</v>
+      </c>
+      <c r="G46" s="128">
+        <v>6178.69</v>
+      </c>
+      <c r="H46" s="128">
+        <v>0</v>
+      </c>
+      <c r="I46" s="135">
+        <v>0</v>
+      </c>
+      <c r="J46" s="128">
+        <v>0</v>
+      </c>
+      <c r="K46" s="128">
+        <v>0</v>
+      </c>
+      <c r="L46" s="128">
+        <v>0</v>
+      </c>
+      <c r="M46" s="128">
+        <v>0</v>
+      </c>
+      <c r="N46" s="128">
+        <v>0</v>
+      </c>
+      <c r="O46" s="128">
         <f t="shared" si="6"/>
-        <v>10627.02</v>
+        <v>16805.71</v>
       </c>
       <c r="P46" s="32"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="137" t="s">
+      <c r="A47" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="138"/>
-      <c r="C47" s="179">
+      <c r="B47" s="153"/>
+      <c r="C47" s="130">
         <f>SUM(C42:C46)</f>
         <v>1760996.99</v>
       </c>
-      <c r="D47" s="179">
+      <c r="D47" s="130">
         <f t="shared" ref="D47:E47" si="7">SUM(D42:D46)</f>
         <v>1471489</v>
       </c>
-      <c r="E47" s="179">
+      <c r="E47" s="130">
         <f t="shared" si="7"/>
         <v>2038165.1</v>
       </c>
-      <c r="F47" s="179">
+      <c r="F47" s="130">
         <f t="shared" ref="F47:O47" si="8">SUM(F42:F46)</f>
         <v>3561009.6399999997</v>
       </c>
-      <c r="G47" s="179">
+      <c r="G47" s="130">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="179">
+        <v>15400.32</v>
+      </c>
+      <c r="H47" s="130">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I47" s="179">
+      <c r="I47" s="130">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J47" s="179">
+      <c r="J47" s="130">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K47" s="179">
+      <c r="K47" s="130">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L47" s="179">
+      <c r="L47" s="130">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M47" s="179">
+      <c r="M47" s="130">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N47" s="179">
+      <c r="N47" s="130">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O47" s="179">
+      <c r="O47" s="130">
         <f t="shared" si="8"/>
-        <v>8831660.7299999986</v>
+        <v>8847061.0500000007</v>
       </c>
       <c r="P47" s="32"/>
     </row>
@@ -17215,21 +17300,21 @@
       <c r="B49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="142">
+      <c r="C49" s="157">
         <v>2024</v>
       </c>
-      <c r="D49" s="143"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="143"/>
-      <c r="J49" s="143"/>
-      <c r="K49" s="143"/>
-      <c r="L49" s="143"/>
-      <c r="M49" s="143"/>
-      <c r="N49" s="143"/>
-      <c r="O49" s="144"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
+      <c r="J49" s="158"/>
+      <c r="K49" s="158"/>
+      <c r="L49" s="158"/>
+      <c r="M49" s="158"/>
+      <c r="N49" s="158"/>
+      <c r="O49" s="159"/>
       <c r="P49" s="32"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17287,43 +17372,43 @@
       <c r="B51" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="177">
-        <v>0</v>
-      </c>
-      <c r="D51" s="177">
-        <v>0</v>
-      </c>
-      <c r="E51" s="177">
-        <v>0</v>
-      </c>
-      <c r="F51" s="177">
-        <v>0</v>
-      </c>
-      <c r="G51" s="177">
-        <v>0</v>
-      </c>
-      <c r="H51" s="177">
-        <v>0</v>
-      </c>
-      <c r="I51" s="177">
-        <v>0</v>
-      </c>
-      <c r="J51" s="177">
-        <v>0</v>
-      </c>
-      <c r="K51" s="177">
-        <v>0</v>
-      </c>
-      <c r="L51" s="177">
-        <v>0</v>
-      </c>
-      <c r="M51" s="177">
-        <v>0</v>
-      </c>
-      <c r="N51" s="177">
-        <v>0</v>
-      </c>
-      <c r="O51" s="177">
+      <c r="C51" s="128">
+        <v>0</v>
+      </c>
+      <c r="D51" s="128">
+        <v>0</v>
+      </c>
+      <c r="E51" s="128">
+        <v>0</v>
+      </c>
+      <c r="F51" s="128">
+        <v>0</v>
+      </c>
+      <c r="G51" s="128">
+        <v>0</v>
+      </c>
+      <c r="H51" s="128">
+        <v>0</v>
+      </c>
+      <c r="I51" s="128">
+        <v>0</v>
+      </c>
+      <c r="J51" s="128">
+        <v>0</v>
+      </c>
+      <c r="K51" s="128">
+        <v>0</v>
+      </c>
+      <c r="L51" s="128">
+        <v>0</v>
+      </c>
+      <c r="M51" s="128">
+        <v>0</v>
+      </c>
+      <c r="N51" s="128">
+        <v>0</v>
+      </c>
+      <c r="O51" s="128">
         <f t="shared" ref="O51:O54" si="9">SUM(C51:N51)</f>
         <v>0</v>
       </c>
@@ -17334,43 +17419,43 @@
       <c r="B52" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="177">
-        <v>0</v>
-      </c>
-      <c r="D52" s="177">
-        <v>0</v>
-      </c>
-      <c r="E52" s="177">
-        <v>0</v>
-      </c>
-      <c r="F52" s="177">
-        <v>0</v>
-      </c>
-      <c r="G52" s="177">
-        <v>0</v>
-      </c>
-      <c r="H52" s="177">
-        <v>0</v>
-      </c>
-      <c r="I52" s="177">
-        <v>0</v>
-      </c>
-      <c r="J52" s="177">
-        <v>0</v>
-      </c>
-      <c r="K52" s="177">
-        <v>0</v>
-      </c>
-      <c r="L52" s="177">
-        <v>0</v>
-      </c>
-      <c r="M52" s="177">
-        <v>0</v>
-      </c>
-      <c r="N52" s="177">
-        <v>0</v>
-      </c>
-      <c r="O52" s="177">
+      <c r="C52" s="128">
+        <v>0</v>
+      </c>
+      <c r="D52" s="128">
+        <v>0</v>
+      </c>
+      <c r="E52" s="128">
+        <v>0</v>
+      </c>
+      <c r="F52" s="128">
+        <v>0</v>
+      </c>
+      <c r="G52" s="128">
+        <v>0</v>
+      </c>
+      <c r="H52" s="128">
+        <v>0</v>
+      </c>
+      <c r="I52" s="128">
+        <v>0</v>
+      </c>
+      <c r="J52" s="128">
+        <v>0</v>
+      </c>
+      <c r="K52" s="128">
+        <v>0</v>
+      </c>
+      <c r="L52" s="128">
+        <v>0</v>
+      </c>
+      <c r="M52" s="128">
+        <v>0</v>
+      </c>
+      <c r="N52" s="128">
+        <v>0</v>
+      </c>
+      <c r="O52" s="128">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -17381,43 +17466,43 @@
       <c r="B53" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="177">
+      <c r="C53" s="128">
         <v>3133288.31</v>
       </c>
-      <c r="D53" s="177">
-        <v>0</v>
-      </c>
-      <c r="E53" s="177">
+      <c r="D53" s="128">
+        <v>0</v>
+      </c>
+      <c r="E53" s="128">
         <v>3764007.08</v>
       </c>
-      <c r="F53" s="177">
+      <c r="F53" s="128">
         <v>1352297.32</v>
       </c>
-      <c r="G53" s="177">
-        <v>0</v>
-      </c>
-      <c r="H53" s="177">
-        <v>0</v>
-      </c>
-      <c r="I53" s="177">
-        <v>0</v>
-      </c>
-      <c r="J53" s="177">
-        <v>0</v>
-      </c>
-      <c r="K53" s="177">
-        <v>0</v>
-      </c>
-      <c r="L53" s="177">
-        <v>0</v>
-      </c>
-      <c r="M53" s="177">
-        <v>0</v>
-      </c>
-      <c r="N53" s="177">
-        <v>0</v>
-      </c>
-      <c r="O53" s="177">
+      <c r="G53" s="128">
+        <v>0</v>
+      </c>
+      <c r="H53" s="128">
+        <v>0</v>
+      </c>
+      <c r="I53" s="128">
+        <v>0</v>
+      </c>
+      <c r="J53" s="128">
+        <v>0</v>
+      </c>
+      <c r="K53" s="128">
+        <v>0</v>
+      </c>
+      <c r="L53" s="128">
+        <v>0</v>
+      </c>
+      <c r="M53" s="128">
+        <v>0</v>
+      </c>
+      <c r="N53" s="128">
+        <v>0</v>
+      </c>
+      <c r="O53" s="128">
         <f t="shared" si="9"/>
         <v>8249592.7100000009</v>
       </c>
@@ -17428,45 +17513,45 @@
       <c r="B54" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="186">
+      <c r="C54" s="137">
         <v>6260.56</v>
       </c>
-      <c r="D54" s="186">
+      <c r="D54" s="137">
         <v>2013.08</v>
       </c>
-      <c r="E54" s="186">
+      <c r="E54" s="137">
         <v>82015.72</v>
       </c>
-      <c r="F54" s="186">
+      <c r="F54" s="137">
         <v>15957.36</v>
       </c>
-      <c r="G54" s="186">
-        <v>0</v>
-      </c>
-      <c r="H54" s="186">
-        <v>0</v>
-      </c>
-      <c r="I54" s="186">
-        <v>0</v>
-      </c>
-      <c r="J54" s="186">
-        <v>0</v>
-      </c>
-      <c r="K54" s="186">
-        <v>0</v>
-      </c>
-      <c r="L54" s="186">
-        <v>0</v>
-      </c>
-      <c r="M54" s="186">
-        <v>0</v>
-      </c>
-      <c r="N54" s="186">
-        <v>0</v>
-      </c>
-      <c r="O54" s="186">
+      <c r="G54" s="137">
+        <v>9221.6299999999992</v>
+      </c>
+      <c r="H54" s="137">
+        <v>0</v>
+      </c>
+      <c r="I54" s="137">
+        <v>0</v>
+      </c>
+      <c r="J54" s="137">
+        <v>0</v>
+      </c>
+      <c r="K54" s="137">
+        <v>0</v>
+      </c>
+      <c r="L54" s="137">
+        <v>0</v>
+      </c>
+      <c r="M54" s="137">
+        <v>0</v>
+      </c>
+      <c r="N54" s="137">
+        <v>0</v>
+      </c>
+      <c r="O54" s="137">
         <f t="shared" si="9"/>
-        <v>106246.72</v>
+        <v>115468.35</v>
       </c>
       <c r="P54" s="32"/>
     </row>
@@ -17475,104 +17560,104 @@
       <c r="B55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="186">
+      <c r="C55" s="137">
         <v>7185.98</v>
       </c>
-      <c r="D55" s="177">
+      <c r="D55" s="128">
         <v>924.65</v>
       </c>
-      <c r="E55" s="186">
-        <v>0</v>
-      </c>
-      <c r="F55" s="186">
-        <v>0</v>
-      </c>
-      <c r="G55" s="186">
-        <v>0</v>
-      </c>
-      <c r="H55" s="186">
-        <v>0</v>
-      </c>
-      <c r="I55" s="186">
-        <v>0</v>
-      </c>
-      <c r="J55" s="186">
-        <v>0</v>
-      </c>
-      <c r="K55" s="186">
-        <v>0</v>
-      </c>
-      <c r="L55" s="186">
-        <v>0</v>
-      </c>
-      <c r="M55" s="186">
-        <v>0</v>
-      </c>
-      <c r="N55" s="186">
-        <v>0</v>
-      </c>
-      <c r="O55" s="186">
+      <c r="E55" s="137">
+        <v>0</v>
+      </c>
+      <c r="F55" s="137">
+        <v>0</v>
+      </c>
+      <c r="G55" s="137">
+        <v>18712.66</v>
+      </c>
+      <c r="H55" s="137">
+        <v>0</v>
+      </c>
+      <c r="I55" s="137">
+        <v>0</v>
+      </c>
+      <c r="J55" s="137">
+        <v>0</v>
+      </c>
+      <c r="K55" s="137">
+        <v>0</v>
+      </c>
+      <c r="L55" s="137">
+        <v>0</v>
+      </c>
+      <c r="M55" s="137">
+        <v>0</v>
+      </c>
+      <c r="N55" s="137">
+        <v>0</v>
+      </c>
+      <c r="O55" s="137">
         <f t="shared" ref="O55" si="10">SUM(C55:N55)</f>
-        <v>8110.6299999999992</v>
+        <v>26823.29</v>
       </c>
       <c r="P55" s="32"/>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="145" t="s">
+      <c r="A56" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="128"/>
-      <c r="C56" s="179">
+      <c r="B56" s="143"/>
+      <c r="C56" s="130">
         <f t="shared" ref="C56:O56" si="11">SUM(C51:C55)</f>
         <v>3146734.85</v>
       </c>
-      <c r="D56" s="179">
+      <c r="D56" s="130">
         <f t="shared" si="11"/>
         <v>2937.73</v>
       </c>
-      <c r="E56" s="179">
+      <c r="E56" s="130">
         <f t="shared" si="11"/>
         <v>3846022.8000000003</v>
       </c>
-      <c r="F56" s="179">
+      <c r="F56" s="130">
         <f t="shared" si="11"/>
         <v>1368254.6800000002</v>
       </c>
-      <c r="G56" s="179">
+      <c r="G56" s="130">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="179">
+        <v>27934.29</v>
+      </c>
+      <c r="H56" s="130">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I56" s="179">
+      <c r="I56" s="130">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J56" s="179">
+      <c r="J56" s="130">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K56" s="179">
+      <c r="K56" s="130">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L56" s="179">
+      <c r="L56" s="130">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M56" s="179">
+      <c r="M56" s="130">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N56" s="179">
+      <c r="N56" s="130">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O56" s="179">
+      <c r="O56" s="130">
         <f t="shared" si="11"/>
-        <v>8363950.0600000005</v>
+        <v>8391884.3499999996</v>
       </c>
       <c r="P56" s="32"/>
     </row>
@@ -18574,8 +18659,8 @@
   </sheetPr>
   <dimension ref="B5:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18593,20 +18678,20 @@
       <c r="B6" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="152">
+      <c r="C6" s="167">
         <v>2024</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
       <c r="O6" s="41"/>
     </row>
     <row r="7" spans="2:15" ht="18" x14ac:dyDescent="0.25">
@@ -18657,18 +18742,18 @@
       <c r="B8" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="156"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="171"/>
       <c r="O8" s="47"/>
     </row>
     <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18687,7 +18772,9 @@
       <c r="F9" s="50">
         <v>26</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="50">
+        <v>32</v>
+      </c>
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
       <c r="J9" s="50"/>
@@ -18697,7 +18784,7 @@
       <c r="N9" s="50"/>
       <c r="O9" s="51">
         <f t="shared" ref="O9:O12" si="0">SUM(C9:N9)</f>
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18716,7 +18803,9 @@
       <c r="F10" s="50">
         <v>34</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="50">
+        <v>31</v>
+      </c>
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
       <c r="J10" s="50"/>
@@ -18726,7 +18815,7 @@
       <c r="N10" s="50"/>
       <c r="O10" s="51">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18745,7 +18834,9 @@
       <c r="F11" s="50">
         <v>150</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="50">
+        <v>146</v>
+      </c>
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
@@ -18755,7 +18846,7 @@
       <c r="N11" s="50"/>
       <c r="O11" s="51">
         <f t="shared" si="0"/>
-        <v>531</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18774,7 +18865,9 @@
       <c r="F12" s="50">
         <v>134</v>
       </c>
-      <c r="G12" s="50"/>
+      <c r="G12" s="50">
+        <v>136</v>
+      </c>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -18784,7 +18877,7 @@
       <c r="N12" s="50"/>
       <c r="O12" s="51">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="18" x14ac:dyDescent="0.25">
@@ -18809,7 +18902,7 @@
       </c>
       <c r="G13" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="H13" s="57">
         <f t="shared" si="1"/>
@@ -18841,26 +18934,26 @@
       </c>
       <c r="O13" s="112">
         <f t="shared" si="1"/>
-        <v>1242</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="159"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="174"/>
     </row>
     <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="48" t="s">
@@ -18878,7 +18971,9 @@
       <c r="F15" s="50">
         <v>41</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="50">
+        <v>30</v>
+      </c>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
@@ -18888,7 +18983,7 @@
       <c r="N15" s="50"/>
       <c r="O15" s="59">
         <f t="shared" ref="O15:O18" si="2">SUM(C15:N15)</f>
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18907,7 +19002,9 @@
       <c r="F16" s="50">
         <v>31</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="50">
+        <v>50</v>
+      </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
       <c r="J16" s="50"/>
@@ -18917,7 +19014,7 @@
       <c r="N16" s="50"/>
       <c r="O16" s="59">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18936,7 +19033,9 @@
       <c r="F17" s="50">
         <v>153</v>
       </c>
-      <c r="G17" s="50"/>
+      <c r="G17" s="50">
+        <v>184</v>
+      </c>
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
@@ -18946,7 +19045,7 @@
       <c r="N17" s="50"/>
       <c r="O17" s="59">
         <f t="shared" si="2"/>
-        <v>581</v>
+        <v>765</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18965,7 +19064,9 @@
       <c r="F18" s="50">
         <v>136</v>
       </c>
-      <c r="G18" s="50"/>
+      <c r="G18" s="50">
+        <v>158</v>
+      </c>
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
@@ -18975,7 +19076,7 @@
       <c r="N18" s="50"/>
       <c r="O18" s="59">
         <f t="shared" si="2"/>
-        <v>553</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19000,7 +19101,7 @@
       </c>
       <c r="G19" s="57">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="H19" s="57">
         <f t="shared" si="3"/>
@@ -19032,7 +19133,7 @@
       </c>
       <c r="O19" s="62">
         <f t="shared" si="3"/>
-        <v>1436</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -19111,7 +19212,9 @@
       <c r="F23" s="104">
         <v>49</v>
       </c>
-      <c r="G23" s="104"/>
+      <c r="G23" s="104">
+        <v>38</v>
+      </c>
       <c r="H23" s="104"/>
       <c r="I23" s="104"/>
       <c r="J23" s="104"/>
@@ -19121,7 +19224,7 @@
       <c r="N23" s="104"/>
       <c r="O23" s="106">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19140,7 +19243,9 @@
       <c r="F24" s="104">
         <v>34</v>
       </c>
-      <c r="G24" s="104"/>
+      <c r="G24" s="104">
+        <v>38</v>
+      </c>
       <c r="H24" s="104"/>
       <c r="I24" s="104"/>
       <c r="J24" s="104"/>
@@ -19150,7 +19255,7 @@
       <c r="N24" s="104"/>
       <c r="O24" s="106">
         <f t="shared" si="4"/>
-        <v>157</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19175,7 +19280,7 @@
       </c>
       <c r="G25" s="107">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H25" s="107">
         <f t="shared" si="5"/>
@@ -19207,7 +19312,7 @@
       </c>
       <c r="O25" s="108">
         <f t="shared" si="5"/>
-        <v>313</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20238,38 +20343,38 @@
       <c r="E4" s="35"/>
     </row>
     <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="167"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="182"/>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="182"/>
     </row>
     <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
@@ -20284,36 +20389,36 @@
       <c r="E6" s="40">
         <v>2021</v>
       </c>
-      <c r="F6" s="152">
+      <c r="F6" s="167">
         <v>2022</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="152">
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="167">
         <v>2023</v>
       </c>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
-      <c r="AB6" s="153"/>
-      <c r="AC6" s="153"/>
-      <c r="AD6" s="153"/>
-      <c r="AE6" s="153"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="168"/>
+      <c r="X6" s="168"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="168"/>
+      <c r="AA6" s="168"/>
+      <c r="AB6" s="168"/>
+      <c r="AC6" s="168"/>
+      <c r="AD6" s="168"/>
+      <c r="AE6" s="168"/>
     </row>
     <row r="7" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
@@ -20409,42 +20514,42 @@
       <c r="B8" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="171"/>
       <c r="R8" s="47"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="155"/>
-      <c r="U8" s="155"/>
-      <c r="V8" s="155"/>
-      <c r="W8" s="155"/>
-      <c r="X8" s="155"/>
-      <c r="Y8" s="155"/>
-      <c r="Z8" s="155"/>
-      <c r="AA8" s="155"/>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="155"/>
-      <c r="AD8" s="156"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="171"/>
       <c r="AE8" s="66"/>
     </row>
     <row r="9" spans="2:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="176"/>
       <c r="E9" s="49">
         <v>12</v>
       </c>
@@ -20485,8 +20590,8 @@
       <c r="B10" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="162"/>
-      <c r="D10" s="163"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="53">
         <v>1</v>
       </c>
@@ -20527,8 +20632,8 @@
       <c r="B11" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="53">
         <v>0</v>
       </c>
@@ -20569,8 +20674,8 @@
       <c r="B12" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="164"/>
-      <c r="D12" s="165"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="54">
         <v>1</v>
       </c>
@@ -20726,42 +20831,42 @@
       <c r="B14" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="169"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="156"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="184"/>
+      <c r="T14" s="170"/>
+      <c r="U14" s="170"/>
+      <c r="V14" s="170"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="170"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="170"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="170"/>
+      <c r="AC14" s="170"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="171"/>
     </row>
     <row r="15" spans="2:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="49">
         <v>15</v>
       </c>
@@ -20802,8 +20907,8 @@
       <c r="B16" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="163"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="53">
         <v>0</v>
       </c>
@@ -20844,8 +20949,8 @@
       <c r="B17" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="163"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
       <c r="E17" s="53">
         <v>1</v>
       </c>
@@ -20886,8 +20991,8 @@
       <c r="B18" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="54">
         <v>0</v>
       </c>
@@ -22481,38 +22586,38 @@
       <c r="E4" s="35"/>
     </row>
     <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="167"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="182"/>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="182"/>
     </row>
     <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
@@ -22527,36 +22632,36 @@
       <c r="E6" s="40">
         <v>2021</v>
       </c>
-      <c r="F6" s="152">
+      <c r="F6" s="167">
         <v>2022</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="152">
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="167">
         <v>2023</v>
       </c>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
-      <c r="AB6" s="153"/>
-      <c r="AC6" s="153"/>
-      <c r="AD6" s="153"/>
-      <c r="AE6" s="153"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="168"/>
+      <c r="X6" s="168"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="168"/>
+      <c r="AA6" s="168"/>
+      <c r="AB6" s="168"/>
+      <c r="AC6" s="168"/>
+      <c r="AD6" s="168"/>
+      <c r="AE6" s="168"/>
     </row>
     <row r="7" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
@@ -22652,42 +22757,42 @@
       <c r="B8" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="171"/>
       <c r="R8" s="46"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="155"/>
-      <c r="U8" s="155"/>
-      <c r="V8" s="155"/>
-      <c r="W8" s="155"/>
-      <c r="X8" s="155"/>
-      <c r="Y8" s="155"/>
-      <c r="Z8" s="155"/>
-      <c r="AA8" s="155"/>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="155"/>
-      <c r="AD8" s="156"/>
+      <c r="S8" s="187"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="171"/>
       <c r="AE8" s="47"/>
     </row>
     <row r="9" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="171"/>
-      <c r="D9" s="161"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="176"/>
       <c r="E9" s="77">
         <v>154</v>
       </c>
@@ -22728,8 +22833,8 @@
       <c r="B10" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="162"/>
-      <c r="D10" s="163"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="84">
         <v>29</v>
       </c>
@@ -22770,8 +22875,8 @@
       <c r="B11" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="84">
         <v>51</v>
       </c>
@@ -22812,8 +22917,8 @@
       <c r="B12" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="164"/>
-      <c r="D12" s="165"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="85">
         <v>0</v>
       </c>
@@ -22969,42 +23074,42 @@
       <c r="B14" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="174"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="156"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="170"/>
+      <c r="U14" s="170"/>
+      <c r="V14" s="170"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="170"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="170"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="170"/>
+      <c r="AC14" s="170"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="171"/>
     </row>
     <row r="15" spans="2:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="161"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="77">
         <v>192</v>
       </c>
@@ -23045,8 +23150,8 @@
       <c r="B16" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="163"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="84">
         <v>7</v>
       </c>
@@ -23087,8 +23192,8 @@
       <c r="B17" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="163"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
       <c r="E17" s="84">
         <v>59</v>
       </c>
@@ -23129,8 +23234,8 @@
       <c r="B18" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="85">
         <v>2</v>
       </c>
